--- a/TelegramBot/base.xlsx
+++ b/TelegramBot/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>https://upload.wikimedia.org/wikipedia/ru/thumb/e/e7/Jurassic_Park_poster.jpg/800px-Jurassic_Park_poster.jpg</t>
   </si>
@@ -51,13 +51,255 @@
   </si>
   <si>
     <t>Экспансивный богач и профессор уговаривает двух палеонтологов приехать на остров у побережья Коста-Рики, где он устроил парк Юрского периода. Парк населен давно вымершими динозаврами, воссозданными профессором по образцам крови из ископаемого комара, которые должны стать гвоздем программы нового аттракциона. До открытия остается несколько дней, а один из сотрудников, пытаясь украсть бесценные эмбрионы, нарушает систему охраны, что вместе с грозовым ливнем приводит к отключению электричества и защитных барьеров. Как раз в тот момент, когда палеонтологи с внуками профессора отправились на пробную экскурсию.</t>
+  </si>
+  <si>
+    <t>Зеленая миля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+драма, фэнтези, криминал</t>
+  </si>
+  <si>
+    <t>Пол Эджкомб — начальник блока смертников в тюрьме «Холодная гора», каждый из узников которого однажды проходит «зеленую милю» по пути к месту казни. Пол повидал много заключённых и надзирателей за время работы. Однако гигант Джон Коффи, обвинённый в страшном преступлении, стал одним из самых необычных обитателей блока.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/4057c4b8-8208-4a04-b169-26b0661453e3/300x450</t>
+  </si>
+  <si>
+    <t>Побег из Шоушенка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+драма</t>
+  </si>
+  <si>
+    <t>Бухгалтер Энди Дюфрейн обвинён в убийстве собственной жены и её любовника. Оказавшись в тюрьме под названием Шоушенк, он сталкивается с жестокостью и беззаконием, царящими по обе стороны решётки. Каждый, кто попадает в эти стены, становится их рабом до конца жизни. Но Энди, обладающий живым умом и доброй душой, находит подход как к заключённым, так и к охранникам, добиваясь их особого к себе расположения.</t>
+  </si>
+  <si>
+    <t>Форрест Гамп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+драма, комедия, мелодрама, история, военный</t>
+  </si>
+  <si>
+    <t>Сидя на автобусной остановке, Форрест Гамп — не очень умный, но добрый и открытый парень — рассказывает случайным встречным историю своей необыкновенной жизни.
+С самого малолетства парень страдал от заболевания ног, соседские мальчишки дразнили его, но в один прекрасный день Форрест открыл в себе невероятные способности к бегу. Подруга детства Дженни всегда его поддерживала и защищала, но вскоре дороги их разошлись.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/3560b757-9b95-45ec-af8c-623972370f9d/300x450</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/0b76b2a2-d1c7-4f04-a284-80ff7bb709a4/300x450</t>
+  </si>
+  <si>
+    <t>Властелин колец: Возвращение короля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+фэнтези, приключения, драма, боевик</t>
+  </si>
+  <si>
+    <t>Повелитель сил тьмы Саурон направляет свою бесчисленную армию под стены Минас-Тирита, крепости Последней Надежды. Он предвкушает близкую победу, но именно это мешает ему заметить две крохотные фигурки — хоббитов, приближающихся к Роковой Горе, где им предстоит уничтожить Кольцо Всевластья.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/4303601/e410c71f-baa1-4fe5-bb29-aedb4662f49b/300x450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Интерстеллар </t>
+  </si>
+  <si>
+    <t>Когда засуха, пыльные бури и вымирание растений приводят человечество к продовольственному кризису, коллектив исследователей и учёных отправляется сквозь червоточину (которая предположительно соединяет области пространства-времени через большое расстояние) в путешествие, чтобы превзойти прежние ограничения для космических путешествий человека и найти планету с подходящими для человечества условиями.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+фантастика, драма, приключения</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1600647/430042eb-ee69-4818-aed0-a312400a26bf/300x450</t>
+  </si>
+  <si>
+    <t>Властелин колец: Братство Кольца</t>
+  </si>
+  <si>
+    <t>Сказания о Средиземье — это хроника Великой войны за Кольцо, длившейся не одну тысячу лет. Тот, кто владел Кольцом, получал неограниченную власть, но был обязан служить злу.
+Тихая деревня, где живут хоббиты. Придя на 111-й день рождения к своему старому другу Бильбо Бэггинсу, волшебник Гэндальф начинает вести разговор о кольце, которое Бильбо нашел много лет назад. Это кольцо принадлежало когда-то темному властителю Средиземья Саурону, и оно дает большую власть своему обладателю. Теперь Саурон хочет вернуть себе власть над Средиземьем. Бильбо отдает Кольцо племяннику Фродо, чтобы тот отнёс его к Роковой Горе и уничтожил.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/6201401/a2d5bcae-a1a9-442f-8195-f5373a5ba77f/300x450</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>Пострадав в результате несчастного случая, богатый аристократ Филипп нанимает в помощники человека, который менее всего подходит для этой работы, – молодого жителя предместья Дрисса, только что освободившегося из тюрьмы. Несмотря на то, что Филипп прикован к инвалидному креслу, Дриссу удается привнести в размеренную жизнь аристократа дух приключений.</t>
+  </si>
+  <si>
+    <r>
+      <t>драма</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>комедия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>биография</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Назад в будущее </t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1946459/bf93b465-1189-4155-9dd1-cb9fb5cb1bb5/300x450</t>
+  </si>
+  <si>
+    <t>Подросток Марти с помощью машины времени, сооружённой его другом-профессором доком Брауном, попадает из 80-х в далекие 50-е. Там он встречается со своими будущими родителями, ещё подростками, и другом-профессором, совсем молодым.</t>
+  </si>
+  <si>
+    <r>
+      <t>фантастика</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>комедия</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>приключения</t>
+    </r>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/73cf2ed0-fd52-47a2-9e26-74104360786a/300x450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Начало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+фантастика, боевик, триллер, драма, детектив</t>
+  </si>
+  <si>
+    <t>Кобб – талантливый вор, лучший из лучших в опасном искусстве извлечения: он крадет ценные секреты из глубин подсознания во время сна, когда человеческий разум наиболее уязвим. Редкие способности Кобба сделали его ценным игроком в привычном к предательству мире промышленного шпионажа, но они же превратили его в извечного беглеца и лишили всего, что он когда-либо любил.
+И вот у Кобба появляется шанс исправить ошибки. Его последнее дело может вернуть все назад, но для этого ему нужно совершить невозможное – инициацию. Вместо идеальной кражи Кобб и его команда спецов должны будут провернуть обратное. Теперь их задача – не украсть идею, а внедрить ее. Если у них получится, это и станет идеальным преступлением.
+Но никакое планирование или мастерство не могут подготовить команду к встрече с опасным противником, который, кажется, предугадывает каждый их ход. Врагом, увидеть которого мог бы лишь Кобб.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1629390/8ab9a119-dd74-44f0-baec-0629797483d7/300x450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гладиатор </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+история, боевик, драма, приключения</t>
+  </si>
+  <si>
+    <t>В великой Римской империи не было военачальника, равного генералу Максимусу. Непобедимые легионы, которыми командовал этот благородный воин, боготворили его и могли последовать за ним даже в ад.
+Но случилось так, что отважный Максимус, готовый сразиться с любым противником в честном бою, оказался бессилен против вероломных придворных интриг. Генерала предали и приговорили к смерти. Чудом избежав гибели, Максимус становится гладиатором.
+Быстро снискав себе славу в кровавых поединках, он оказывается в знаменитом римском Колизее, на арене которого он встретится в смертельной схватке со своим заклятым врагом...</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/7c3460dc-344d-433f-8220-f18d86c8397d/300x450</t>
+  </si>
+  <si>
+    <t>Поймай меня, если сможешь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+криминал, биография, комедия</t>
+  </si>
+  <si>
+    <t>Фрэнк Эбегнейл успел поработать врачом, адвокатом и пилотом на пассажирской авиалинии – и все это до достижения полного совершеннолетия в 21 год. Мастер в обмане и жульничестве, он также обладал искусством подделки документов, что в конечном счете принесло ему миллионы долларов, которые он получил по фальшивым чекам.
+Агент ФБР Карл Хэнрэтти отдал бы все, чтобы схватить Фрэнка и привлечь к ответственности за свои деяния, но Фрэнк всегда опережает его на шаг, заставляя продолжать погоню.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1704946/e38dd6f9-610e-4c90-8540-dc48560cb9cc/300x450</t>
+  </si>
+  <si>
+    <t>Зеленая книга</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+биография, комедия, драма</t>
+  </si>
+  <si>
+    <t>1960-е годы. После закрытия нью-йоркского ночного клуба на ремонт вышибала Тони по прозвищу Болтун ищет подработку на пару месяцев. Как раз в это время Дон Ширли — утонченный светский лев, богатый и талантливый чернокожий музыкант, исполняющий классическую музыку — собирается в турне по южным штатам, где ещё сильны расистские убеждения и царит сегрегация. Он нанимает Тони в качестве водителя, телохранителя и человека, способного решать текущие проблемы. У этих двоих так мало общего, и эта поездка навсегда изменит жизнь обоих.</t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/4b27e219-a8a5-4d85-9874-57d6016e0837/300x450</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,6 +314,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,11 +358,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -426,10 +694,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -463,10 +731,263 @@
       </c>
       <c r="G1" s="2"/>
     </row>
+    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>9.1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>9.07</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>8.9</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>8.6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>8.57</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10">
+        <v>8.69</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>8.6</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>8.5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13">
+        <v>8.4</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F1" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F5" r:id="rId5"/>
+    <hyperlink ref="F6" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F7" r:id="rId12"/>
+    <hyperlink ref="F8" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/TelegramBot/base.xlsx
+++ b/TelegramBot/base.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>https://upload.wikimedia.org/wikipedia/ru/thumb/e/e7/Jurassic_Park_poster.jpg/800px-Jurassic_Park_poster.jpg</t>
   </si>
@@ -93,9 +93,6 @@
     <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/0b76b2a2-d1c7-4f04-a284-80ff7bb709a4/300x450</t>
   </si>
   <si>
-    <t>Властелин колец: Возвращение короля</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 фэнтези, приключения, драма, боевик</t>
   </si>
@@ -103,9 +100,6 @@
     <t>Повелитель сил тьмы Саурон направляет свою бесчисленную армию под стены Минас-Тирита, крепости Последней Надежды. Он предвкушает близкую победу, но именно это мешает ему заметить две крохотные фигурки — хоббитов, приближающихся к Роковой Горе, где им предстоит уничтожить Кольцо Всевластья.</t>
   </si>
   <si>
-    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/4303601/e410c71f-baa1-4fe5-bb29-aedb4662f49b/300x450</t>
-  </si>
-  <si>
     <t xml:space="preserve">Интерстеллар </t>
   </si>
   <si>
@@ -117,9 +111,6 @@
   </si>
   <si>
     <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1600647/430042eb-ee69-4818-aed0-a312400a26bf/300x450</t>
-  </si>
-  <si>
-    <t>Властелин колец: Братство Кольца</t>
   </si>
   <si>
     <t>Сказания о Средиземье — это хроника Великой войны за Кольцо, длившейся не одну тысячу лет. Тот, кто владел Кольцом, получал неограниченную власть, но был обязан служить злу.
@@ -293,6 +284,18 @@
   </si>
   <si>
     <t>https://avatars.mds.yandex.net/get-kinopoisk-image/1599028/4b27e219-a8a5-4d85-9874-57d6016e0837/300x450</t>
+  </si>
+  <si>
+    <t>фэнтези, приключения, драма, боевик</t>
+  </si>
+  <si>
+    <t>Властелин колец  Братство Кольца</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Властелин колец  </t>
+  </si>
+  <si>
+    <t>https://avatars.mds.yandex.net/get-kinopoisk-image/4303601/e410c71f-baa1-4fe5-bb29-aedb4662f49b/300x450</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -791,15 +794,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D5">
         <v>8.6999999999999993</v>
@@ -808,18 +811,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D6">
         <v>8.6</v>
@@ -828,18 +831,18 @@
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="144" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>8.57</v>
@@ -848,18 +851,18 @@
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>8.7899999999999991</v>
@@ -868,18 +871,18 @@
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="D9">
         <v>8.8000000000000007</v>
@@ -888,18 +891,18 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="216" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>8.69</v>
@@ -908,18 +911,18 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D11">
         <v>8.6</v>
@@ -928,18 +931,18 @@
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>8.5</v>
@@ -948,18 +951,18 @@
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D13">
         <v>8.4</v>
@@ -968,7 +971,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -977,17 +980,16 @@
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F4" r:id="rId3"/>
     <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="F5" r:id="rId5"/>
-    <hyperlink ref="F6" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F7" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F12" r:id="rId9"/>
+    <hyperlink ref="F13" r:id="rId10"/>
+    <hyperlink ref="F7" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>